--- a/indicativos.xlsx
+++ b/indicativos.xlsx
@@ -165,7 +165,7 @@
     <t xml:space="preserve">PRIDIS…..T…..</t>
   </si>
   <si>
-    <t xml:space="preserve">POTRIN</t>
+    <t xml:space="preserve">POTRIN / dudu</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/indicativos.xlsx
+++ b/indicativos.xlsx
@@ -438,13 +438,13 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B:B"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="75.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="81.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.51"/>
